--- a/biology/Botanique/Munnozia_senecionidis/Munnozia_senecionidis.xlsx
+++ b/biology/Botanique/Munnozia_senecionidis/Munnozia_senecionidis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Munnozia senecionidis est une espèce de plantes à fleurs de la famille des Asteraceae, présente en Colombie et au Venezuela.
 </t>
@@ -511,28 +523,30 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce a pour synonymes : 
-Chrysastrum sagittatum Willd. ex Wedd.[2] [3]
-Liabum hastatum (Wedd. ex Britton) Britton[3]
-Liabum isodontum S.F.Blake[2] [3]
-Liabum megacephalum Sch.Bip.[3]
-Liabum sagittatum Sch.Bip.[3]
-Liabum taeniotrichum S.F.Blake[2] [3]
-Munnozia ariste-josephi Rusby[2] [3]
-Munnozia attenuata Rusby[3]
-Munnozia filipes Rusby[3]
-Munnozia hastata Wedd. ex Britton[2] [3]
-Munnozia hastata Wedd.[3]
-Munnozia isodonta (S.F.Blake) H.Rob. &amp; Brettell[2] [3]
-Munnozia laxiflora Rusby[3]
-Munnozia megacephala (Sch.Bip.) H.Rob. &amp; Brettell[2] [3]
-Munnozia megacephalum (Sch.Bip.) H.Rob. &amp; Brettell[3]
-Munnozia sagittata (Sch.Bip.) H.Rob. &amp; Brettell[3]
-Munnozia sagittata Wedd.[2] [3]
-Munnozia strigulosa Rusby[3]
-Munnozia taeniotricha (S.F.Blake) H.Rob. &amp; Brettell[2] [3]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a pour synonymes : 
+Chrysastrum sagittatum Willd. ex Wedd. 
+Liabum hastatum (Wedd. ex Britton) Britton
+Liabum isodontum S.F.Blake 
+Liabum megacephalum Sch.Bip.
+Liabum sagittatum Sch.Bip.
+Liabum taeniotrichum S.F.Blake 
+Munnozia ariste-josephi Rusby 
+Munnozia attenuata Rusby
+Munnozia filipes Rusby
+Munnozia hastata Wedd. ex Britton 
+Munnozia hastata Wedd.
+Munnozia isodonta (S.F.Blake) H.Rob. &amp; Brettell 
+Munnozia laxiflora Rusby
+Munnozia megacephala (Sch.Bip.) H.Rob. &amp; Brettell 
+Munnozia megacephalum (Sch.Bip.) H.Rob. &amp; Brettell
+Munnozia sagittata (Sch.Bip.) H.Rob. &amp; Brettell
+Munnozia sagittata Wedd. 
+Munnozia strigulosa Rusby
+Munnozia taeniotricha (S.F.Blake) H.Rob. &amp; Brettell </t>
         </is>
       </c>
     </row>
